--- a/biology/Botanique/Plectranthus_neochilus/Plectranthus_neochilus.xlsx
+++ b/biology/Botanique/Plectranthus_neochilus/Plectranthus_neochilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plectranthus neochilus est une espèce de plantes de la famille des Labiées (Lamiaceae) qui fait partie des végétaux communément appelés coléus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'ensemble
@@ -546,11 +560,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1896 par le botaniste allemand Rudolf Schlechter (1872-1925).
-Synonymes
-Selon World Checklist of Selected Plant Families (WCSP)  (3 décembre 2015)[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1896 par le botaniste allemand Rudolf Schlechter (1872-1925).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plectranthus_neochilus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_neochilus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 décembre 2015)
 Coleus neochilus (Schltr.) Codd (synonyme homotypique)
 Coleus schinzii Gürke
 Coleus palliolatus S.Moore</t>
